--- a/experiment/User_info.xlsx
+++ b/experiment/User_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7E38FA-A9C0-4CB3-A02F-AE52ED217E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63680F09-20A2-431D-B61F-0F92D3EDCFE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -624,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
